--- a/testbench/openoffice.xlsx
+++ b/testbench/openoffice.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="212" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="167" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>year</t>
   </si>
@@ -24,39 +25,42 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>first_event</t>
+  </si>
+  <si>
+    <t>second_event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="YYYY/MM/DD\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="YYYY/MM/DD" numFmtId="167"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY\ HH:MM\ AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +72,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -77,43 +81,47 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -121,22 +129,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.54509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -146,33 +153,102 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="0" t="n">
         <v>-50.5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="D2" s="1" t="n">
+        <v>40179.9583333333</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>41274.9583333333</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
+        <f aca="false">B2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>23.5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>40179</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>41274</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>343.12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>345.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
